--- a/data/landings/cdfw/public/fish_bulletins/raw/fb168/raw/Table20.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb168/raw/Table20.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb168/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb168/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877C4BD2-E6DD-6447-9D96-C99CE4B7D62D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3FF9C7-0510-294D-A89A-A7586581CEB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14880" yWindow="460" windowWidth="16040" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,12 +624,12 @@
   <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A106" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+      <selection activeCell="A106" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
@@ -3140,13 +3140,13 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D144" s="2">
         <v>706644579</v>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb168/raw/Table20.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb168/raw/Table20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb168/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3FF9C7-0510-294D-A89A-A7586581CEB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3811443-CEB2-2D49-8E07-B931AEA87EBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14880" yWindow="460" windowWidth="16040" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="73">
   <si>
     <t>Terminal Island</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Total check</t>
+  </si>
+  <si>
+    <t>Sculpin</t>
   </si>
 </sst>
 </file>
@@ -623,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="A106" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1617,7 +1620,7 @@
         <v>47</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D57" s="2">
         <v>3379</v>
